--- a/materials/exp_lists/session_1_14.xlsx
+++ b/materials/exp_lists/session_1_14.xlsx
@@ -479,7 +479,7 @@
     <t>rantare = гранат?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>колбаса</t>
@@ -488,10 +488,10 @@
     <t>derartu</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = колбаса?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = колбаса?</t>
   </si>
   <si>
     <t>derartu.wav</t>
